--- a/res/trades.xlsx
+++ b/res/trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="9">
   <si>
     <t>交易日</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1324"/>
+  <dimension ref="A1:G1325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30856,6 +30856,29 @@
         <v>18.1</v>
       </c>
     </row>
+    <row r="1325" spans="1:7">
+      <c r="A1325">
+        <v>44</v>
+      </c>
+      <c r="B1325">
+        <v>1</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1325">
+        <v>49</v>
+      </c>
+      <c r="E1325">
+        <v>32</v>
+      </c>
+      <c r="F1325">
+        <v>100</v>
+      </c>
+      <c r="G1325">
+        <v>32.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
